--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S9/S9_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S9/S9_dampingfactor.xlsx
@@ -14,198 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>97.54666850695283</t>
-  </si>
-  <si>
-    <t>99.16469410993409</t>
-  </si>
-  <si>
-    <t>100.27176425934232</t>
-  </si>
-  <si>
-    <t>101.46399365101273</t>
-  </si>
-  <si>
-    <t>102.91170076946965</t>
-  </si>
-  <si>
-    <t>104.16475819132732</t>
-  </si>
-  <si>
-    <t>105.55163727959697</t>
-  </si>
-  <si>
-    <t>107.34944350513172</t>
-  </si>
-  <si>
-    <t>109.29864393913253</t>
-  </si>
-  <si>
-    <t>111.17214726890032</t>
-  </si>
-  <si>
-    <t>113.0943130228179</t>
-  </si>
-  <si>
-    <t>114.91915392843586</t>
-  </si>
-  <si>
-    <t>116.79265725820365</t>
-  </si>
-  <si>
-    <t>118.66616058797143</t>
-  </si>
-  <si>
-    <t>120.5396639177392</t>
-  </si>
-  <si>
-    <t>122.48129464131672</t>
-  </si>
-  <si>
-    <t>124.32073427417963</t>
-  </si>
-  <si>
-    <t>126.16017390704255</t>
-  </si>
-  <si>
-    <t>128.06774093371519</t>
-  </si>
-  <si>
-    <t>129.9071805665781</t>
-  </si>
-  <si>
-    <t>131.78068389634586</t>
-  </si>
-  <si>
-    <t>133.5264483627204</t>
-  </si>
-  <si>
-    <t>135.46382112418482</t>
-  </si>
-  <si>
-    <t>137.41822573410167</t>
-  </si>
-  <si>
-    <t>139.274697215417</t>
-  </si>
-  <si>
-    <t>141.09710499982748</t>
-  </si>
-  <si>
-    <t>143.02170387495255</t>
-  </si>
-  <si>
-    <t>144.89520720472035</t>
-  </si>
-  <si>
-    <t>146.7687105344881</t>
-  </si>
-  <si>
-    <t>148.6422138642559</t>
-  </si>
-  <si>
-    <t>149.8344432559263</t>
-  </si>
-  <si>
-    <t>0.048403396611136885</t>
-  </si>
-  <si>
-    <t>0.06599127926039877</t>
-  </si>
-  <si>
-    <t>0.08165910169893784</t>
-  </si>
-  <si>
-    <t>0.11037953312856977</t>
-  </si>
-  <si>
-    <t>0.14893326381042146</t>
-  </si>
-  <si>
-    <t>0.20902077979884975</t>
-  </si>
-  <si>
-    <t>0.28718746056927225</t>
-  </si>
-  <si>
-    <t>0.36265023046312705</t>
-  </si>
-  <si>
-    <t>0.45637807820045356</t>
-  </si>
-  <si>
-    <t>0.5176036355746313</t>
-  </si>
-  <si>
-    <t>0.5515543006715014</t>
-  </si>
-  <si>
-    <t>0.5582523464268905</t>
-  </si>
-  <si>
-    <t>0.5250940765888397</t>
-  </si>
-  <si>
-    <t>0.4888624505251796</t>
-  </si>
-  <si>
-    <t>0.46124358889726347</t>
-  </si>
-  <si>
-    <t>0.41261230069463906</t>
-  </si>
-  <si>
-    <t>0.3793298764137822</t>
-  </si>
-  <si>
-    <t>0.36439120940954073</t>
-  </si>
-  <si>
-    <t>0.35229327987142345</t>
-  </si>
-  <si>
-    <t>0.34192785879469717</t>
-  </si>
-  <si>
-    <t>0.34439305680998883</t>
-  </si>
-  <si>
-    <t>0.3390595894824068</t>
-  </si>
-  <si>
-    <t>0.3262309323218296</t>
-  </si>
-  <si>
-    <t>0.32247783457853474</t>
-  </si>
-  <si>
-    <t>0.3323559446768754</t>
-  </si>
-  <si>
-    <t>0.3342143463193651</t>
-  </si>
-  <si>
-    <t>0.34286489424116995</t>
-  </si>
-  <si>
-    <t>0.3496160177082942</t>
-  </si>
-  <si>
-    <t>0.35637813969087623</t>
-  </si>
-  <si>
-    <t>0.36364405448733306</t>
-  </si>
-  <si>
-    <t>0.35723254970042634</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -578,251 +392,251 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="A2">
+        <v>97.54666850695283</v>
+      </c>
+      <c r="B2">
+        <v>0.04840339661113689</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
+      <c r="A3">
+        <v>99.16469410993409</v>
+      </c>
+      <c r="B3">
+        <v>0.06599127926039877</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
+      <c r="A4">
+        <v>100.2717642593423</v>
+      </c>
+      <c r="B4">
+        <v>0.08165910169893784</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+      <c r="A5">
+        <v>101.4639936510127</v>
+      </c>
+      <c r="B5">
+        <v>0.1103795331285698</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
+      <c r="A6">
+        <v>102.9117007694696</v>
+      </c>
+      <c r="B6">
+        <v>0.1489332638104215</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
+      <c r="A7">
+        <v>104.1647581913273</v>
+      </c>
+      <c r="B7">
+        <v>0.2090207797988498</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
+      <c r="A8">
+        <v>105.551637279597</v>
+      </c>
+      <c r="B8">
+        <v>0.2871874605692722</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
+      <c r="A9">
+        <v>107.3494435051317</v>
+      </c>
+      <c r="B9">
+        <v>0.3626502304631271</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
+      <c r="A10">
+        <v>109.2986439391325</v>
+      </c>
+      <c r="B10">
+        <v>0.4563780782004536</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
+      <c r="A11">
+        <v>111.1721472689003</v>
+      </c>
+      <c r="B11">
+        <v>0.5176036355746313</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
+      <c r="A12">
+        <v>113.0943130228179</v>
+      </c>
+      <c r="B12">
+        <v>0.5515543006715014</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
+      <c r="A13">
+        <v>114.9191539284359</v>
+      </c>
+      <c r="B13">
+        <v>0.5582523464268905</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
+      <c r="A14">
+        <v>116.7926572582036</v>
+      </c>
+      <c r="B14">
+        <v>0.5250940765888397</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
+      <c r="A15">
+        <v>118.6661605879714</v>
+      </c>
+      <c r="B15">
+        <v>0.4888624505251796</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
+      <c r="A16">
+        <v>120.5396639177392</v>
+      </c>
+      <c r="B16">
+        <v>0.4612435888972635</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
+      <c r="A17">
+        <v>122.4812946413167</v>
+      </c>
+      <c r="B17">
+        <v>0.4126123006946391</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
+      <c r="A18">
+        <v>124.3207342741796</v>
+      </c>
+      <c r="B18">
+        <v>0.3793298764137822</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
+      <c r="A19">
+        <v>126.1601739070425</v>
+      </c>
+      <c r="B19">
+        <v>0.3643912094095407</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
+      <c r="A20">
+        <v>128.0677409337152</v>
+      </c>
+      <c r="B20">
+        <v>0.3522932798714234</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
+      <c r="A21">
+        <v>129.9071805665781</v>
+      </c>
+      <c r="B21">
+        <v>0.3419278587946972</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
+      <c r="A22">
+        <v>131.7806838963459</v>
+      </c>
+      <c r="B22">
+        <v>0.3443930568099888</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
+      <c r="A23">
+        <v>133.5264483627204</v>
+      </c>
+      <c r="B23">
+        <v>0.3390595894824068</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
+      <c r="A24">
+        <v>135.4638211241848</v>
+      </c>
+      <c r="B24">
+        <v>0.3262309323218296</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
+      <c r="A25">
+        <v>137.4182257341017</v>
+      </c>
+      <c r="B25">
+        <v>0.3224778345785347</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
+      <c r="A26">
+        <v>139.274697215417</v>
+      </c>
+      <c r="B26">
+        <v>0.3323559446768754</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
+      <c r="A27">
+        <v>141.0971049998275</v>
+      </c>
+      <c r="B27">
+        <v>0.3342143463193651</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
+      <c r="A28">
+        <v>143.0217038749525</v>
+      </c>
+      <c r="B28">
+        <v>0.3428648942411699</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
+      <c r="A29">
+        <v>144.8952072047204</v>
+      </c>
+      <c r="B29">
+        <v>0.3496160177082942</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
+      <c r="A30">
+        <v>146.7687105344881</v>
+      </c>
+      <c r="B30">
+        <v>0.3563781396908762</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
+      <c r="A31">
+        <v>148.6422138642559</v>
+      </c>
+      <c r="B31">
+        <v>0.3636440544873331</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
+      <c r="A32">
+        <v>149.8344432559263</v>
+      </c>
+      <c r="B32">
+        <v>0.3572325497004263</v>
       </c>
     </row>
   </sheetData>
